--- a/DnaRepairSpreadsheetParser/test/exampleData/broadAssays/Broad Institute_jnegri_.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/broadAssays/Broad Institute_jnegri_.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="810" windowWidth="14940" windowHeight="8610"/>
@@ -32,12 +32,12 @@
     <definedName name="readout_type">'Assay Definition'!$S$73:$S$83</definedName>
     <definedName name="species_name">'Assay Definition'!$M$73:$M$122</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1147">
   <si>
     <t>Instructions:
 Fill out from left to right.  Watch for red errors, correct them before moving on to the next column</t>
@@ -3472,17 +3472,20 @@
     <t>HGL HSF-1</t>
   </si>
   <si>
-    <t xml:space="preserve">  602268 *2382*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  602269 *493083*</t>
+    <t>2382</t>
+  </si>
+  <si>
+    <t>588851</t>
+  </si>
+  <si>
+    <t>493083</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3562,7 +3565,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3591,6 +3594,9 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3598,7 +3604,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3700,6 +3709,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3734,6 +3744,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3909,17 +3920,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BK237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2490" topLeftCell="E1" activePane="topRight"/>
-      <selection activeCell="A10" sqref="A10:A49"/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
@@ -3952,7 +3961,7 @@
     <col min="59" max="59" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="3" customFormat="1" ht="76.5" customHeight="1">
+    <row r="1" spans="1:63" s="3" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3992,77 +4001,77 @@
       <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22" t="s">
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
       <c r="U1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="22"/>
+      <c r="W1" s="23"/>
       <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="20" t="s">
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="21" t="s">
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="22" t="s">
         <v>1043</v>
       </c>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21" t="s">
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22" t="s">
         <v>1044</v>
       </c>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-    </row>
-    <row r="2" spans="1:63" s="4" customFormat="1" ht="25.5" customHeight="1">
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+    </row>
+    <row r="2" spans="1:63" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -4241,7 +4250,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>102</v>
       </c>
@@ -4413,7 +4422,7 @@
       </c>
       <c r="BK3" s="8"/>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>102</v>
       </c>
@@ -4445,7 +4454,7 @@
       <c r="BF4" s="9"/>
       <c r="BK4" s="8"/>
     </row>
-    <row r="5" spans="1:63" ht="14.25">
+    <row r="5" spans="1:63" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>102</v>
       </c>
@@ -4467,7 +4476,7 @@
       <c r="BF5" s="9"/>
       <c r="BK5" s="8"/>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>110</v>
       </c>
@@ -4558,7 +4567,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>110</v>
       </c>
@@ -4636,7 +4645,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>114</v>
       </c>
@@ -4807,7 +4816,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>114</v>
       </c>
@@ -4838,7 +4847,7 @@
       </c>
       <c r="BF9" s="9"/>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>114</v>
       </c>
@@ -4854,7 +4863,7 @@
       </c>
       <c r="BF10" s="9"/>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>116</v>
       </c>
@@ -5028,7 +5037,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>116</v>
       </c>
@@ -5045,7 +5054,7 @@
       <c r="BF12" s="9"/>
       <c r="BG12" s="10"/>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>116</v>
       </c>
@@ -5068,7 +5077,7 @@
       <c r="BF13" s="9"/>
       <c r="BG13" s="10"/>
     </row>
-    <row r="14" spans="1:63">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>124</v>
       </c>
@@ -5178,7 +5187,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="15" spans="1:63" s="8" customFormat="1">
+    <row r="15" spans="1:63" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>134</v>
       </c>
@@ -5349,7 +5358,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="16" spans="1:63">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>134</v>
       </c>
@@ -5380,7 +5389,7 @@
       </c>
       <c r="BF16" s="9"/>
     </row>
-    <row r="17" spans="1:59">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>134</v>
       </c>
@@ -5396,7 +5405,7 @@
       </c>
       <c r="BF17" s="9"/>
     </row>
-    <row r="18" spans="1:59">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
         <v>1094</v>
       </c>
@@ -5570,7 +5579,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="19" spans="1:59">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>1094</v>
       </c>
@@ -5592,7 +5601,7 @@
       <c r="BE19"/>
       <c r="BF19" s="17"/>
     </row>
-    <row r="20" spans="1:59">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>1094</v>
       </c>
@@ -5619,7 +5628,7 @@
       <c r="BE20"/>
       <c r="BF20" s="17"/>
     </row>
-    <row r="21" spans="1:59">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>1095</v>
       </c>
@@ -5733,7 +5742,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="22" spans="1:59">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>1095</v>
       </c>
@@ -5773,7 +5782,7 @@
       <c r="BF22" s="17"/>
       <c r="BG22" s="10"/>
     </row>
-    <row r="23" spans="1:59">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>1095</v>
       </c>
@@ -5792,7 +5801,7 @@
       <c r="BF23" s="17"/>
       <c r="BG23" s="10"/>
     </row>
-    <row r="24" spans="1:59">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>1097</v>
       </c>
@@ -5969,7 +5978,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:59">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>1097</v>
       </c>
@@ -5990,7 +5999,7 @@
       <c r="BE25"/>
       <c r="BF25" s="17"/>
     </row>
-    <row r="26" spans="1:59">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>1097</v>
       </c>
@@ -6017,7 +6026,7 @@
       <c r="BE26"/>
       <c r="BF26" s="17"/>
     </row>
-    <row r="27" spans="1:59">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>1101</v>
       </c>
@@ -6185,7 +6194,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="28" spans="1:59">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>1101</v>
       </c>
@@ -6203,7 +6212,7 @@
       <c r="BF28" s="17"/>
       <c r="BG28" s="10"/>
     </row>
-    <row r="29" spans="1:59">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
         <v>1102</v>
       </c>
@@ -6295,7 +6304,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="30" spans="1:59">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
         <v>1102</v>
       </c>
@@ -6307,7 +6316,7 @@
       <c r="BF30" s="17"/>
       <c r="BG30" s="10"/>
     </row>
-    <row r="31" spans="1:59">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>1103</v>
       </c>
@@ -6402,7 +6411,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="32" spans="1:59">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
         <v>1103</v>
       </c>
@@ -6420,7 +6429,7 @@
       <c r="BE32"/>
       <c r="BF32" s="17"/>
     </row>
-    <row r="33" spans="1:59">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>156</v>
       </c>
@@ -6585,7 +6594,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="34" spans="1:59">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>156</v>
       </c>
@@ -6605,7 +6614,7 @@
       <c r="BF34" s="9"/>
       <c r="BG34" s="10"/>
     </row>
-    <row r="35" spans="1:59">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>156</v>
       </c>
@@ -6618,7 +6627,7 @@
       <c r="BF35" s="9"/>
       <c r="BG35" s="10"/>
     </row>
-    <row r="36" spans="1:59">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>159</v>
       </c>
@@ -6792,7 +6801,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="37" spans="1:59">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>159</v>
       </c>
@@ -6832,7 +6841,7 @@
       <c r="BF37" s="9"/>
       <c r="BG37" s="10"/>
     </row>
-    <row r="38" spans="1:59">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>159</v>
       </c>
@@ -6845,7 +6854,7 @@
       <c r="BF38" s="9"/>
       <c r="BG38" s="10"/>
     </row>
-    <row r="39" spans="1:59">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>160</v>
       </c>
@@ -7025,7 +7034,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="40" spans="1:59">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>160</v>
       </c>
@@ -7066,7 +7075,7 @@
       <c r="BF40" s="9"/>
       <c r="BG40" s="10"/>
     </row>
-    <row r="41" spans="1:59">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
         <v>161</v>
       </c>
@@ -7222,7 +7231,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="42" spans="1:59">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>161</v>
       </c>
@@ -7247,7 +7256,7 @@
       <c r="BF42" s="9"/>
       <c r="BG42" s="10"/>
     </row>
-    <row r="43" spans="1:59">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
         <v>161</v>
       </c>
@@ -7260,7 +7269,7 @@
       <c r="BF43" s="9"/>
       <c r="BG43" s="10"/>
     </row>
-    <row r="44" spans="1:59">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>164</v>
       </c>
@@ -7383,8 +7392,8 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="45" spans="1:59">
-      <c r="A45" s="23" t="s">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
         <v>164</v>
       </c>
       <c r="C45" s="8"/>
@@ -7422,8 +7431,8 @@
       <c r="BF45" s="9"/>
       <c r="BG45" s="10"/>
     </row>
-    <row r="46" spans="1:59">
-      <c r="A46" s="23" t="s">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
         <v>165</v>
       </c>
       <c r="B46" t="str">
@@ -7545,8 +7554,8 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="47" spans="1:59">
-      <c r="A47" s="23" t="s">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
         <v>165</v>
       </c>
       <c r="B47" t="str">
@@ -7571,9 +7580,9 @@
       </c>
       <c r="BF47" s="9"/>
     </row>
-    <row r="48" spans="1:59">
-      <c r="A48" s="23">
-        <v>588851</v>
+    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A48" s="25" t="s">
+        <v>1145</v>
       </c>
       <c r="B48" t="str">
         <f>IF(OR($A44=$A48,ISBLANK($A48)),"",IF(ISERR(SEARCH("cell-based",E48)),IF(AND(ISERR(SEARCH("biochem",E48)),ISERR(SEARCH("protein",E48)),ISERR(SEARCH("nucleic",E48))),"",IF(ISERR(SEARCH("target",G48)),"Define a Target component","")),IF(ISERR(SEARCH("cell",G48)),"Define a Cell component",""))&amp;IF(ISERR(SEARCH("small-molecule",E48)),IF(ISBLANK(K48), "Need a Detector Role",""),"")&amp;IF(ISERR(SEARCH("fluorescence",L48)),"",IF(ISBLANK(S48), "Need Emission",IF(ISBLANK(R48), "Need Excitation","")))&amp;IF(ISERR(SEARCH("absorbance",L48)),"",IF(ISBLANK(T48), "Need Absorbance","")))</f>
@@ -7691,9 +7700,9 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="49" spans="1:59">
-      <c r="A49" s="23">
-        <v>588851</v>
+    <row r="49" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A49" s="25" t="s">
+        <v>1145</v>
       </c>
       <c r="B49" t="str">
         <f>IF(OR($A46=$A49,ISBLANK($A49)),"",IF(ISERR(SEARCH("cell-based",E49)),IF(AND(ISERR(SEARCH("biochem",E49)),ISERR(SEARCH("protein",E49)),ISERR(SEARCH("nucleic",E49))),"",IF(ISERR(SEARCH("target",G49)),"Define a Target component","")),IF(ISERR(SEARCH("cell",G49)),"Define a Cell component",""))&amp;IF(ISERR(SEARCH("small-molecule",E49)),IF(ISBLANK(K49), "Need a Detector Role",""),"")&amp;IF(ISERR(SEARCH("fluorescence",L49)),"",IF(ISBLANK(S49), "Need Emission",IF(ISBLANK(R49), "Need Excitation","")))&amp;IF(ISERR(SEARCH("absorbance",L49)),"",IF(ISBLANK(T49), "Need Absorbance","")))</f>
@@ -7716,7 +7725,7 @@
       </c>
       <c r="BF49" s="9"/>
     </row>
-    <row r="50" spans="1:59">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>166</v>
       </c>
@@ -7878,7 +7887,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="51" spans="1:59" ht="13.5" customHeight="1">
+    <row r="51" spans="1:59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>166</v>
       </c>
@@ -7905,8 +7914,8 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="52" spans="1:59">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A52" s="24" t="s">
         <v>1144</v>
       </c>
       <c r="B52" t="str">
@@ -8055,8 +8064,8 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="53" spans="1:59">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
         <v>1144</v>
       </c>
       <c r="G53" s="8" t="s">
@@ -8082,9 +8091,9 @@
       <c r="BF53" s="9"/>
       <c r="BG53" s="10"/>
     </row>
-    <row r="54" spans="1:59">
-      <c r="A54" s="4" t="s">
-        <v>1145</v>
+    <row r="54" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A54" s="24" t="s">
+        <v>1146</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" ref="B54" si="3">IF(OR($A52=$A54,ISBLANK($A54)),"",IF(ISERR(SEARCH("cell-based",E54)),IF(AND(ISERR(SEARCH("biochem",E54)),ISERR(SEARCH("protein",E54)),ISERR(SEARCH("nucleic",E54))),"",IF(ISERR(SEARCH("target",G54)),"Define a Target component","")),IF(ISERR(SEARCH("cell",G54)),"Define a Cell component",""))&amp;IF(ISERR(SEARCH("small-molecule",E54)),IF(ISBLANK(K54), "Need a Detector Role",""),"")&amp;IF(ISERR(SEARCH("fluorescence",L54)),"",IF(ISBLANK(S54), "Need Emission",IF(ISBLANK(R54), "Need Excitation","")))&amp;IF(ISERR(SEARCH("absorbance",L54)),"",IF(ISBLANK(T54), "Need Absorbance","")))</f>
@@ -8232,9 +8241,9 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="55" spans="1:59">
-      <c r="A55" s="4" t="s">
-        <v>1145</v>
+    <row r="55" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="A55" s="24" t="s">
+        <v>1146</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>320</v>
@@ -8259,7 +8268,7 @@
       <c r="BF55" s="9"/>
       <c r="BG55" s="10"/>
     </row>
-    <row r="56" spans="1:59">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>169</v>
       </c>
@@ -8412,7 +8421,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="57" spans="1:59">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>169</v>
       </c>
@@ -8439,7 +8448,7 @@
       <c r="BF57" s="9"/>
       <c r="BG57" s="10"/>
     </row>
-    <row r="58" spans="1:59">
+    <row r="58" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>172</v>
       </c>
@@ -8592,7 +8601,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="59" spans="1:59">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>172</v>
       </c>
@@ -8617,7 +8626,7 @@
       <c r="BF59" s="9"/>
       <c r="BG59" s="10"/>
     </row>
-    <row r="60" spans="1:59">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>173</v>
       </c>
@@ -8770,7 +8779,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="61" spans="1:59">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>173</v>
       </c>
@@ -8795,7 +8804,7 @@
       <c r="BF61" s="9"/>
       <c r="BG61" s="10"/>
     </row>
-    <row r="62" spans="1:59">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>174</v>
       </c>
@@ -8912,7 +8921,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="63" spans="1:59" ht="12.75" customHeight="1">
+    <row r="63" spans="1:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>174</v>
       </c>
@@ -8947,7 +8956,7 @@
       </c>
       <c r="BF63" s="9"/>
     </row>
-    <row r="64" spans="1:59" s="7" customFormat="1">
+    <row r="64" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>1</v>
       </c>
@@ -8959,7 +8968,7 @@
       <c r="BF64" s="16"/>
       <c r="BG64" s="16"/>
     </row>
-    <row r="65" spans="1:59" hidden="1">
+    <row r="65" spans="1:59" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1104</v>
       </c>
@@ -9040,7 +9049,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="66" spans="1:59" ht="13.5" hidden="1" customHeight="1">
+    <row r="66" spans="1:59" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1105</v>
       </c>
@@ -9121,7 +9130,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="67" spans="1:59" hidden="1">
+    <row r="67" spans="1:59" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1106</v>
       </c>
@@ -9202,7 +9211,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="68" spans="1:59" hidden="1">
+    <row r="68" spans="1:59" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1107</v>
       </c>
@@ -9232,7 +9241,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="69" spans="1:59" hidden="1">
+    <row r="69" spans="1:59" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>154</v>
       </c>
@@ -9313,7 +9322,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="70" spans="1:59" hidden="1">
+    <row r="70" spans="1:59" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -9394,17 +9403,17 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="71" spans="1:59">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:59">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:59">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>175</v>
       </c>
@@ -9475,7 +9484,7 @@
       <c r="BE73"/>
       <c r="BF73"/>
     </row>
-    <row r="74" spans="1:59">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
         <v>193</v>
       </c>
@@ -9547,7 +9556,7 @@
       <c r="BF74"/>
       <c r="BG74"/>
     </row>
-    <row r="75" spans="1:59">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="C75" t="s">
         <v>212</v>
@@ -9617,7 +9626,7 @@
       <c r="BF75"/>
       <c r="BG75"/>
     </row>
-    <row r="76" spans="1:59">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
         <v>231</v>
       </c>
@@ -9683,7 +9692,7 @@
       <c r="BF76"/>
       <c r="BG76"/>
     </row>
-    <row r="77" spans="1:59">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
         <v>249</v>
       </c>
@@ -9746,7 +9755,7 @@
       <c r="BF77"/>
       <c r="BG77"/>
     </row>
-    <row r="78" spans="1:59">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
         <v>266</v>
       </c>
@@ -9809,7 +9818,7 @@
       <c r="BF78"/>
       <c r="BG78"/>
     </row>
-    <row r="79" spans="1:59">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
         <v>283</v>
       </c>
@@ -9872,7 +9881,7 @@
       <c r="BF79"/>
       <c r="BG79"/>
     </row>
-    <row r="80" spans="1:59">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
         <v>300</v>
       </c>
@@ -9935,7 +9944,7 @@
       <c r="BF80"/>
       <c r="BG80"/>
     </row>
-    <row r="81" spans="3:59">
+    <row r="81" spans="3:59" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>317</v>
       </c>
@@ -9995,7 +10004,7 @@
       <c r="BF81"/>
       <c r="BG81"/>
     </row>
-    <row r="82" spans="3:59">
+    <row r="82" spans="3:59" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>333</v>
       </c>
@@ -10052,7 +10061,7 @@
       <c r="BF82"/>
       <c r="BG82"/>
     </row>
-    <row r="83" spans="3:59">
+    <row r="83" spans="3:59" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>346</v>
       </c>
@@ -10106,7 +10115,7 @@
       <c r="BF83"/>
       <c r="BG83"/>
     </row>
-    <row r="84" spans="3:59">
+    <row r="84" spans="3:59" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
         <v>359</v>
       </c>
@@ -10157,7 +10166,7 @@
       <c r="BF84"/>
       <c r="BG84"/>
     </row>
-    <row r="85" spans="3:59">
+    <row r="85" spans="3:59" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
         <v>372</v>
       </c>
@@ -10205,7 +10214,7 @@
       <c r="BF85"/>
       <c r="BG85"/>
     </row>
-    <row r="86" spans="3:59">
+    <row r="86" spans="3:59" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
         <v>383</v>
       </c>
@@ -10253,7 +10262,7 @@
       <c r="BF86"/>
       <c r="BG86"/>
     </row>
-    <row r="87" spans="3:59">
+    <row r="87" spans="3:59" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
         <v>394</v>
       </c>
@@ -10301,7 +10310,7 @@
       <c r="BF87"/>
       <c r="BG87"/>
     </row>
-    <row r="88" spans="3:59">
+    <row r="88" spans="3:59" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
         <v>405</v>
       </c>
@@ -10349,7 +10358,7 @@
       <c r="BF88"/>
       <c r="BG88"/>
     </row>
-    <row r="89" spans="3:59">
+    <row r="89" spans="3:59" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
         <v>416</v>
       </c>
@@ -10397,7 +10406,7 @@
       <c r="BF89"/>
       <c r="BG89"/>
     </row>
-    <row r="90" spans="3:59">
+    <row r="90" spans="3:59" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
         <v>427</v>
       </c>
@@ -10445,7 +10454,7 @@
       <c r="BF90"/>
       <c r="BG90"/>
     </row>
-    <row r="91" spans="3:59">
+    <row r="91" spans="3:59" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
         <v>438</v>
       </c>
@@ -10493,7 +10502,7 @@
       <c r="BF91"/>
       <c r="BG91"/>
     </row>
-    <row r="92" spans="3:59">
+    <row r="92" spans="3:59" x14ac:dyDescent="0.2">
       <c r="F92" t="s">
         <v>449</v>
       </c>
@@ -10538,7 +10547,7 @@
       <c r="BF92"/>
       <c r="BG92"/>
     </row>
-    <row r="93" spans="3:59">
+    <row r="93" spans="3:59" x14ac:dyDescent="0.2">
       <c r="F93" t="s">
         <v>460</v>
       </c>
@@ -10583,7 +10592,7 @@
       <c r="BF93"/>
       <c r="BG93"/>
     </row>
-    <row r="94" spans="3:59">
+    <row r="94" spans="3:59" x14ac:dyDescent="0.2">
       <c r="F94" t="s">
         <v>471</v>
       </c>
@@ -10625,7 +10634,7 @@
       <c r="BF94"/>
       <c r="BG94"/>
     </row>
-    <row r="95" spans="3:59">
+    <row r="95" spans="3:59" x14ac:dyDescent="0.2">
       <c r="F95" t="s">
         <v>481</v>
       </c>
@@ -10667,7 +10676,7 @@
       <c r="BF95"/>
       <c r="BG95"/>
     </row>
-    <row r="96" spans="3:59">
+    <row r="96" spans="3:59" x14ac:dyDescent="0.2">
       <c r="F96" t="s">
         <v>490</v>
       </c>
@@ -10709,7 +10718,7 @@
       <c r="BF96"/>
       <c r="BG96"/>
     </row>
-    <row r="97" spans="6:59">
+    <row r="97" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F97" t="s">
         <v>500</v>
       </c>
@@ -10751,7 +10760,7 @@
       <c r="BF97"/>
       <c r="BG97"/>
     </row>
-    <row r="98" spans="6:59">
+    <row r="98" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F98" t="s">
         <v>509</v>
       </c>
@@ -10793,7 +10802,7 @@
       <c r="BF98"/>
       <c r="BG98"/>
     </row>
-    <row r="99" spans="6:59">
+    <row r="99" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F99" t="s">
         <v>519</v>
       </c>
@@ -10835,7 +10844,7 @@
       <c r="BF99"/>
       <c r="BG99"/>
     </row>
-    <row r="100" spans="6:59">
+    <row r="100" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F100" t="s">
         <v>529</v>
       </c>
@@ -10874,7 +10883,7 @@
       <c r="BF100"/>
       <c r="BG100"/>
     </row>
-    <row r="101" spans="6:59">
+    <row r="101" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F101" t="s">
         <v>538</v>
       </c>
@@ -10913,7 +10922,7 @@
       <c r="BF101"/>
       <c r="BG101"/>
     </row>
-    <row r="102" spans="6:59">
+    <row r="102" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F102" t="s">
         <v>546</v>
       </c>
@@ -10952,7 +10961,7 @@
       <c r="BF102"/>
       <c r="BG102"/>
     </row>
-    <row r="103" spans="6:59">
+    <row r="103" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F103" t="s">
         <v>554</v>
       </c>
@@ -10991,7 +11000,7 @@
       <c r="BF103"/>
       <c r="BG103"/>
     </row>
-    <row r="104" spans="6:59">
+    <row r="104" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F104" t="s">
         <v>563</v>
       </c>
@@ -11030,7 +11039,7 @@
       <c r="BF104"/>
       <c r="BG104"/>
     </row>
-    <row r="105" spans="6:59">
+    <row r="105" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F105" t="s">
         <v>572</v>
       </c>
@@ -11069,7 +11078,7 @@
       <c r="BF105"/>
       <c r="BG105"/>
     </row>
-    <row r="106" spans="6:59">
+    <row r="106" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F106" t="s">
         <v>581</v>
       </c>
@@ -11108,7 +11117,7 @@
       <c r="BF106"/>
       <c r="BG106"/>
     </row>
-    <row r="107" spans="6:59">
+    <row r="107" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F107" t="s">
         <v>590</v>
       </c>
@@ -11147,7 +11156,7 @@
       <c r="BF107"/>
       <c r="BG107"/>
     </row>
-    <row r="108" spans="6:59">
+    <row r="108" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F108" t="s">
         <v>599</v>
       </c>
@@ -11186,7 +11195,7 @@
       <c r="BF108"/>
       <c r="BG108"/>
     </row>
-    <row r="109" spans="6:59">
+    <row r="109" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F109" t="s">
         <v>608</v>
       </c>
@@ -11225,7 +11234,7 @@
       <c r="BF109"/>
       <c r="BG109"/>
     </row>
-    <row r="110" spans="6:59">
+    <row r="110" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F110" t="s">
         <v>617</v>
       </c>
@@ -11264,7 +11273,7 @@
       <c r="BF110"/>
       <c r="BG110"/>
     </row>
-    <row r="111" spans="6:59">
+    <row r="111" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F111" t="s">
         <v>626</v>
       </c>
@@ -11303,7 +11312,7 @@
       <c r="BF111"/>
       <c r="BG111"/>
     </row>
-    <row r="112" spans="6:59">
+    <row r="112" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F112" t="s">
         <v>633</v>
       </c>
@@ -11342,7 +11351,7 @@
       <c r="BF112"/>
       <c r="BG112"/>
     </row>
-    <row r="113" spans="6:59">
+    <row r="113" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F113" t="s">
         <v>641</v>
       </c>
@@ -11381,7 +11390,7 @@
       <c r="BF113"/>
       <c r="BG113"/>
     </row>
-    <row r="114" spans="6:59">
+    <row r="114" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F114" t="s">
         <v>649</v>
       </c>
@@ -11420,7 +11429,7 @@
       <c r="BF114"/>
       <c r="BG114"/>
     </row>
-    <row r="115" spans="6:59">
+    <row r="115" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F115" t="s">
         <v>657</v>
       </c>
@@ -11456,7 +11465,7 @@
       <c r="BF115"/>
       <c r="BG115"/>
     </row>
-    <row r="116" spans="6:59">
+    <row r="116" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F116" t="s">
         <v>664</v>
       </c>
@@ -11492,7 +11501,7 @@
       <c r="BF116"/>
       <c r="BG116"/>
     </row>
-    <row r="117" spans="6:59">
+    <row r="117" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F117" t="s">
         <v>671</v>
       </c>
@@ -11528,7 +11537,7 @@
       <c r="BF117"/>
       <c r="BG117"/>
     </row>
-    <row r="118" spans="6:59">
+    <row r="118" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F118" t="s">
         <v>678</v>
       </c>
@@ -11561,7 +11570,7 @@
       <c r="BF118"/>
       <c r="BG118"/>
     </row>
-    <row r="119" spans="6:59">
+    <row r="119" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F119" t="s">
         <v>684</v>
       </c>
@@ -11594,7 +11603,7 @@
       <c r="BF119"/>
       <c r="BG119"/>
     </row>
-    <row r="120" spans="6:59">
+    <row r="120" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F120" t="s">
         <v>690</v>
       </c>
@@ -11627,7 +11636,7 @@
       <c r="BF120"/>
       <c r="BG120"/>
     </row>
-    <row r="121" spans="6:59">
+    <row r="121" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F121" t="s">
         <v>696</v>
       </c>
@@ -11660,7 +11669,7 @@
       <c r="BF121"/>
       <c r="BG121"/>
     </row>
-    <row r="122" spans="6:59">
+    <row r="122" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F122" t="s">
         <v>702</v>
       </c>
@@ -11690,7 +11699,7 @@
       <c r="BF122"/>
       <c r="BG122"/>
     </row>
-    <row r="123" spans="6:59">
+    <row r="123" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F123" t="s">
         <v>707</v>
       </c>
@@ -11720,7 +11729,7 @@
       <c r="BF123"/>
       <c r="BG123"/>
     </row>
-    <row r="124" spans="6:59">
+    <row r="124" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F124" t="s">
         <v>712</v>
       </c>
@@ -11750,7 +11759,7 @@
       <c r="BF124"/>
       <c r="BG124"/>
     </row>
-    <row r="125" spans="6:59">
+    <row r="125" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F125" t="s">
         <v>717</v>
       </c>
@@ -11780,7 +11789,7 @@
       <c r="BF125"/>
       <c r="BG125"/>
     </row>
-    <row r="126" spans="6:59">
+    <row r="126" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F126" t="s">
         <v>722</v>
       </c>
@@ -11810,7 +11819,7 @@
       <c r="BF126"/>
       <c r="BG126"/>
     </row>
-    <row r="127" spans="6:59">
+    <row r="127" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F127" t="s">
         <v>727</v>
       </c>
@@ -11840,7 +11849,7 @@
       <c r="BF127"/>
       <c r="BG127"/>
     </row>
-    <row r="128" spans="6:59">
+    <row r="128" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F128" t="s">
         <v>732</v>
       </c>
@@ -11870,7 +11879,7 @@
       <c r="BF128"/>
       <c r="BG128"/>
     </row>
-    <row r="129" spans="6:59">
+    <row r="129" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F129" t="s">
         <v>736</v>
       </c>
@@ -11900,7 +11909,7 @@
       <c r="BF129"/>
       <c r="BG129"/>
     </row>
-    <row r="130" spans="6:59">
+    <row r="130" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F130" t="s">
         <v>740</v>
       </c>
@@ -11930,7 +11939,7 @@
       <c r="BF130"/>
       <c r="BG130"/>
     </row>
-    <row r="131" spans="6:59">
+    <row r="131" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F131" t="s">
         <v>744</v>
       </c>
@@ -11960,7 +11969,7 @@
       <c r="BF131"/>
       <c r="BG131"/>
     </row>
-    <row r="132" spans="6:59">
+    <row r="132" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F132" t="s">
         <v>748</v>
       </c>
@@ -11990,7 +11999,7 @@
       <c r="BF132"/>
       <c r="BG132"/>
     </row>
-    <row r="133" spans="6:59">
+    <row r="133" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F133" t="s">
         <v>752</v>
       </c>
@@ -12020,7 +12029,7 @@
       <c r="BF133"/>
       <c r="BG133"/>
     </row>
-    <row r="134" spans="6:59">
+    <row r="134" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F134" t="s">
         <v>756</v>
       </c>
@@ -12050,7 +12059,7 @@
       <c r="BF134"/>
       <c r="BG134"/>
     </row>
-    <row r="135" spans="6:59">
+    <row r="135" spans="6:59" x14ac:dyDescent="0.2">
       <c r="F135" t="s">
         <v>760</v>
       </c>
@@ -12080,7 +12089,7 @@
       <c r="BF135"/>
       <c r="BG135"/>
     </row>
-    <row r="136" spans="6:59">
+    <row r="136" spans="6:59" x14ac:dyDescent="0.2">
       <c r="H136" t="s">
         <v>764</v>
       </c>
@@ -12104,7 +12113,7 @@
       <c r="BF136"/>
       <c r="BG136"/>
     </row>
-    <row r="137" spans="6:59">
+    <row r="137" spans="6:59" x14ac:dyDescent="0.2">
       <c r="H137" t="s">
         <v>767</v>
       </c>
@@ -12128,7 +12137,7 @@
       <c r="BF137"/>
       <c r="BG137"/>
     </row>
-    <row r="138" spans="6:59">
+    <row r="138" spans="6:59" x14ac:dyDescent="0.2">
       <c r="H138" t="s">
         <v>770</v>
       </c>
@@ -12152,7 +12161,7 @@
       <c r="BF138"/>
       <c r="BG138"/>
     </row>
-    <row r="139" spans="6:59">
+    <row r="139" spans="6:59" x14ac:dyDescent="0.2">
       <c r="H139" t="s">
         <v>773</v>
       </c>
@@ -12176,7 +12185,7 @@
       <c r="BF139"/>
       <c r="BG139"/>
     </row>
-    <row r="140" spans="6:59">
+    <row r="140" spans="6:59" x14ac:dyDescent="0.2">
       <c r="H140" t="s">
         <v>777</v>
       </c>
@@ -12197,7 +12206,7 @@
       <c r="BF140"/>
       <c r="BG140"/>
     </row>
-    <row r="141" spans="6:59">
+    <row r="141" spans="6:59" x14ac:dyDescent="0.2">
       <c r="H141" t="s">
         <v>780</v>
       </c>
@@ -12218,7 +12227,7 @@
       <c r="BF141"/>
       <c r="BG141"/>
     </row>
-    <row r="142" spans="6:59">
+    <row r="142" spans="6:59" x14ac:dyDescent="0.2">
       <c r="H142" t="s">
         <v>782</v>
       </c>
@@ -12239,7 +12248,7 @@
       <c r="BF142"/>
       <c r="BG142"/>
     </row>
-    <row r="143" spans="6:59">
+    <row r="143" spans="6:59" x14ac:dyDescent="0.2">
       <c r="H143" t="s">
         <v>785</v>
       </c>
@@ -12260,7 +12269,7 @@
       <c r="BF143"/>
       <c r="BG143"/>
     </row>
-    <row r="144" spans="6:59">
+    <row r="144" spans="6:59" x14ac:dyDescent="0.2">
       <c r="H144" t="s">
         <v>788</v>
       </c>
@@ -12278,7 +12287,7 @@
       <c r="BF144"/>
       <c r="BG144"/>
     </row>
-    <row r="145" spans="8:59">
+    <row r="145" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H145" t="s">
         <v>790</v>
       </c>
@@ -12296,7 +12305,7 @@
       <c r="BF145"/>
       <c r="BG145"/>
     </row>
-    <row r="146" spans="8:59">
+    <row r="146" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H146" t="s">
         <v>791</v>
       </c>
@@ -12314,7 +12323,7 @@
       <c r="BF146"/>
       <c r="BG146"/>
     </row>
-    <row r="147" spans="8:59">
+    <row r="147" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H147" t="s">
         <v>792</v>
       </c>
@@ -12332,7 +12341,7 @@
       <c r="BF147"/>
       <c r="BG147"/>
     </row>
-    <row r="148" spans="8:59">
+    <row r="148" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H148" t="s">
         <v>794</v>
       </c>
@@ -12350,7 +12359,7 @@
       <c r="BF148"/>
       <c r="BG148"/>
     </row>
-    <row r="149" spans="8:59">
+    <row r="149" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H149" t="s">
         <v>796</v>
       </c>
@@ -12368,7 +12377,7 @@
       <c r="BF149"/>
       <c r="BG149"/>
     </row>
-    <row r="150" spans="8:59">
+    <row r="150" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H150" t="s">
         <v>798</v>
       </c>
@@ -12386,7 +12395,7 @@
       <c r="BF150"/>
       <c r="BG150"/>
     </row>
-    <row r="151" spans="8:59">
+    <row r="151" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H151" t="s">
         <v>800</v>
       </c>
@@ -12404,7 +12413,7 @@
       <c r="BF151"/>
       <c r="BG151"/>
     </row>
-    <row r="152" spans="8:59">
+    <row r="152" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H152" t="s">
         <v>802</v>
       </c>
@@ -12422,7 +12431,7 @@
       <c r="BF152"/>
       <c r="BG152"/>
     </row>
-    <row r="153" spans="8:59">
+    <row r="153" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H153" t="s">
         <v>804</v>
       </c>
@@ -12440,7 +12449,7 @@
       <c r="BF153"/>
       <c r="BG153"/>
     </row>
-    <row r="154" spans="8:59">
+    <row r="154" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H154" t="s">
         <v>806</v>
       </c>
@@ -12458,7 +12467,7 @@
       <c r="BF154"/>
       <c r="BG154"/>
     </row>
-    <row r="155" spans="8:59">
+    <row r="155" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H155" t="s">
         <v>808</v>
       </c>
@@ -12476,7 +12485,7 @@
       <c r="BF155"/>
       <c r="BG155"/>
     </row>
-    <row r="156" spans="8:59">
+    <row r="156" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H156" t="s">
         <v>809</v>
       </c>
@@ -12494,7 +12503,7 @@
       <c r="BF156"/>
       <c r="BG156"/>
     </row>
-    <row r="157" spans="8:59">
+    <row r="157" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H157" t="s">
         <v>810</v>
       </c>
@@ -12512,7 +12521,7 @@
       <c r="BF157"/>
       <c r="BG157"/>
     </row>
-    <row r="158" spans="8:59">
+    <row r="158" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H158" t="s">
         <v>811</v>
       </c>
@@ -12530,7 +12539,7 @@
       <c r="BF158"/>
       <c r="BG158"/>
     </row>
-    <row r="159" spans="8:59">
+    <row r="159" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H159" t="s">
         <v>812</v>
       </c>
@@ -12548,7 +12557,7 @@
       <c r="BF159"/>
       <c r="BG159"/>
     </row>
-    <row r="160" spans="8:59">
+    <row r="160" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H160" t="s">
         <v>813</v>
       </c>
@@ -12566,7 +12575,7 @@
       <c r="BF160"/>
       <c r="BG160"/>
     </row>
-    <row r="161" spans="8:59">
+    <row r="161" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H161" t="s">
         <v>814</v>
       </c>
@@ -12584,7 +12593,7 @@
       <c r="BF161"/>
       <c r="BG161"/>
     </row>
-    <row r="162" spans="8:59">
+    <row r="162" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H162" t="s">
         <v>815</v>
       </c>
@@ -12602,7 +12611,7 @@
       <c r="BF162"/>
       <c r="BG162"/>
     </row>
-    <row r="163" spans="8:59">
+    <row r="163" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H163" t="s">
         <v>816</v>
       </c>
@@ -12620,7 +12629,7 @@
       <c r="BF163"/>
       <c r="BG163"/>
     </row>
-    <row r="164" spans="8:59">
+    <row r="164" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H164" t="s">
         <v>817</v>
       </c>
@@ -12638,7 +12647,7 @@
       <c r="BF164"/>
       <c r="BG164"/>
     </row>
-    <row r="165" spans="8:59">
+    <row r="165" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H165" t="s">
         <v>818</v>
       </c>
@@ -12656,7 +12665,7 @@
       <c r="BF165"/>
       <c r="BG165"/>
     </row>
-    <row r="166" spans="8:59">
+    <row r="166" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H166" t="s">
         <v>819</v>
       </c>
@@ -12674,7 +12683,7 @@
       <c r="BF166"/>
       <c r="BG166"/>
     </row>
-    <row r="167" spans="8:59">
+    <row r="167" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H167" t="s">
         <v>820</v>
       </c>
@@ -12692,7 +12701,7 @@
       <c r="BF167"/>
       <c r="BG167"/>
     </row>
-    <row r="168" spans="8:59">
+    <row r="168" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H168" t="s">
         <v>821</v>
       </c>
@@ -12710,7 +12719,7 @@
       <c r="BF168"/>
       <c r="BG168"/>
     </row>
-    <row r="169" spans="8:59">
+    <row r="169" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H169" t="s">
         <v>822</v>
       </c>
@@ -12728,7 +12737,7 @@
       <c r="BF169"/>
       <c r="BG169"/>
     </row>
-    <row r="170" spans="8:59">
+    <row r="170" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H170" t="s">
         <v>823</v>
       </c>
@@ -12746,7 +12755,7 @@
       <c r="BF170"/>
       <c r="BG170"/>
     </row>
-    <row r="171" spans="8:59">
+    <row r="171" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H171" t="s">
         <v>824</v>
       </c>
@@ -12764,7 +12773,7 @@
       <c r="BF171"/>
       <c r="BG171"/>
     </row>
-    <row r="172" spans="8:59">
+    <row r="172" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H172" t="s">
         <v>825</v>
       </c>
@@ -12782,7 +12791,7 @@
       <c r="BF172"/>
       <c r="BG172"/>
     </row>
-    <row r="173" spans="8:59">
+    <row r="173" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H173" t="s">
         <v>826</v>
       </c>
@@ -12800,7 +12809,7 @@
       <c r="BF173"/>
       <c r="BG173"/>
     </row>
-    <row r="174" spans="8:59">
+    <row r="174" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H174" t="s">
         <v>827</v>
       </c>
@@ -12818,7 +12827,7 @@
       <c r="BF174"/>
       <c r="BG174"/>
     </row>
-    <row r="175" spans="8:59">
+    <row r="175" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H175" t="s">
         <v>828</v>
       </c>
@@ -12836,7 +12845,7 @@
       <c r="BF175"/>
       <c r="BG175"/>
     </row>
-    <row r="176" spans="8:59">
+    <row r="176" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H176" t="s">
         <v>829</v>
       </c>
@@ -12854,7 +12863,7 @@
       <c r="BF176"/>
       <c r="BG176"/>
     </row>
-    <row r="177" spans="8:59">
+    <row r="177" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H177" t="s">
         <v>830</v>
       </c>
@@ -12872,7 +12881,7 @@
       <c r="BF177"/>
       <c r="BG177"/>
     </row>
-    <row r="178" spans="8:59">
+    <row r="178" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H178" t="s">
         <v>831</v>
       </c>
@@ -12890,7 +12899,7 @@
       <c r="BF178"/>
       <c r="BG178"/>
     </row>
-    <row r="179" spans="8:59">
+    <row r="179" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H179" t="s">
         <v>832</v>
       </c>
@@ -12908,7 +12917,7 @@
       <c r="BF179"/>
       <c r="BG179"/>
     </row>
-    <row r="180" spans="8:59">
+    <row r="180" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H180" t="s">
         <v>833</v>
       </c>
@@ -12926,7 +12935,7 @@
       <c r="BF180"/>
       <c r="BG180"/>
     </row>
-    <row r="181" spans="8:59">
+    <row r="181" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H181" t="s">
         <v>834</v>
       </c>
@@ -12944,7 +12953,7 @@
       <c r="BF181"/>
       <c r="BG181"/>
     </row>
-    <row r="182" spans="8:59">
+    <row r="182" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H182" t="s">
         <v>835</v>
       </c>
@@ -12962,7 +12971,7 @@
       <c r="BF182"/>
       <c r="BG182"/>
     </row>
-    <row r="183" spans="8:59">
+    <row r="183" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H183" t="s">
         <v>836</v>
       </c>
@@ -12980,7 +12989,7 @@
       <c r="BF183"/>
       <c r="BG183"/>
     </row>
-    <row r="184" spans="8:59">
+    <row r="184" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H184" t="s">
         <v>838</v>
       </c>
@@ -12998,7 +13007,7 @@
       <c r="BF184"/>
       <c r="BG184"/>
     </row>
-    <row r="185" spans="8:59">
+    <row r="185" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H185" t="s">
         <v>840</v>
       </c>
@@ -13016,7 +13025,7 @@
       <c r="BF185"/>
       <c r="BG185"/>
     </row>
-    <row r="186" spans="8:59">
+    <row r="186" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H186" t="s">
         <v>842</v>
       </c>
@@ -13034,7 +13043,7 @@
       <c r="BF186"/>
       <c r="BG186"/>
     </row>
-    <row r="187" spans="8:59">
+    <row r="187" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H187" t="s">
         <v>844</v>
       </c>
@@ -13052,7 +13061,7 @@
       <c r="BF187"/>
       <c r="BG187"/>
     </row>
-    <row r="188" spans="8:59">
+    <row r="188" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H188" t="s">
         <v>846</v>
       </c>
@@ -13070,7 +13079,7 @@
       <c r="BF188"/>
       <c r="BG188"/>
     </row>
-    <row r="189" spans="8:59">
+    <row r="189" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H189" t="s">
         <v>848</v>
       </c>
@@ -13088,7 +13097,7 @@
       <c r="BF189"/>
       <c r="BG189"/>
     </row>
-    <row r="190" spans="8:59">
+    <row r="190" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H190" t="s">
         <v>849</v>
       </c>
@@ -13106,7 +13115,7 @@
       <c r="BF190"/>
       <c r="BG190"/>
     </row>
-    <row r="191" spans="8:59">
+    <row r="191" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H191" t="s">
         <v>850</v>
       </c>
@@ -13124,7 +13133,7 @@
       <c r="BF191"/>
       <c r="BG191"/>
     </row>
-    <row r="192" spans="8:59">
+    <row r="192" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H192" t="s">
         <v>851</v>
       </c>
@@ -13142,7 +13151,7 @@
       <c r="BF192"/>
       <c r="BG192"/>
     </row>
-    <row r="193" spans="8:59">
+    <row r="193" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H193" t="s">
         <v>852</v>
       </c>
@@ -13160,7 +13169,7 @@
       <c r="BF193"/>
       <c r="BG193"/>
     </row>
-    <row r="194" spans="8:59">
+    <row r="194" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H194" t="s">
         <v>853</v>
       </c>
@@ -13178,7 +13187,7 @@
       <c r="BF194"/>
       <c r="BG194"/>
     </row>
-    <row r="195" spans="8:59">
+    <row r="195" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H195" t="s">
         <v>855</v>
       </c>
@@ -13196,7 +13205,7 @@
       <c r="BF195"/>
       <c r="BG195"/>
     </row>
-    <row r="196" spans="8:59">
+    <row r="196" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H196" t="s">
         <v>857</v>
       </c>
@@ -13214,7 +13223,7 @@
       <c r="BF196"/>
       <c r="BG196"/>
     </row>
-    <row r="197" spans="8:59">
+    <row r="197" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H197" t="s">
         <v>859</v>
       </c>
@@ -13232,7 +13241,7 @@
       <c r="BF197"/>
       <c r="BG197"/>
     </row>
-    <row r="198" spans="8:59">
+    <row r="198" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H198" t="s">
         <v>861</v>
       </c>
@@ -13250,7 +13259,7 @@
       <c r="BF198"/>
       <c r="BG198"/>
     </row>
-    <row r="199" spans="8:59">
+    <row r="199" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H199" t="s">
         <v>863</v>
       </c>
@@ -13268,7 +13277,7 @@
       <c r="BF199"/>
       <c r="BG199"/>
     </row>
-    <row r="200" spans="8:59">
+    <row r="200" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H200" t="s">
         <v>865</v>
       </c>
@@ -13286,7 +13295,7 @@
       <c r="BF200"/>
       <c r="BG200"/>
     </row>
-    <row r="201" spans="8:59">
+    <row r="201" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H201" t="s">
         <v>867</v>
       </c>
@@ -13304,7 +13313,7 @@
       <c r="BF201"/>
       <c r="BG201"/>
     </row>
-    <row r="202" spans="8:59">
+    <row r="202" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H202" t="s">
         <v>869</v>
       </c>
@@ -13322,7 +13331,7 @@
       <c r="BF202"/>
       <c r="BG202"/>
     </row>
-    <row r="203" spans="8:59">
+    <row r="203" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H203" t="s">
         <v>871</v>
       </c>
@@ -13340,7 +13349,7 @@
       <c r="BF203"/>
       <c r="BG203"/>
     </row>
-    <row r="204" spans="8:59">
+    <row r="204" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H204" t="s">
         <v>873</v>
       </c>
@@ -13358,7 +13367,7 @@
       <c r="BF204"/>
       <c r="BG204"/>
     </row>
-    <row r="205" spans="8:59">
+    <row r="205" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H205" t="s">
         <v>875</v>
       </c>
@@ -13373,7 +13382,7 @@
       <c r="BF205"/>
       <c r="BG205"/>
     </row>
-    <row r="206" spans="8:59">
+    <row r="206" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H206" t="s">
         <v>876</v>
       </c>
@@ -13388,7 +13397,7 @@
       <c r="BF206"/>
       <c r="BG206"/>
     </row>
-    <row r="207" spans="8:59">
+    <row r="207" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H207" t="s">
         <v>877</v>
       </c>
@@ -13403,7 +13412,7 @@
       <c r="BF207"/>
       <c r="BG207"/>
     </row>
-    <row r="208" spans="8:59">
+    <row r="208" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H208" t="s">
         <v>878</v>
       </c>
@@ -13418,7 +13427,7 @@
       <c r="BF208"/>
       <c r="BG208"/>
     </row>
-    <row r="209" spans="8:59">
+    <row r="209" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H209" t="s">
         <v>879</v>
       </c>
@@ -13433,7 +13442,7 @@
       <c r="BF209"/>
       <c r="BG209"/>
     </row>
-    <row r="210" spans="8:59">
+    <row r="210" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H210" t="s">
         <v>880</v>
       </c>
@@ -13445,7 +13454,7 @@
       <c r="BF210"/>
       <c r="BG210"/>
     </row>
-    <row r="211" spans="8:59">
+    <row r="211" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H211" t="s">
         <v>881</v>
       </c>
@@ -13457,7 +13466,7 @@
       <c r="BF211"/>
       <c r="BG211"/>
     </row>
-    <row r="212" spans="8:59">
+    <row r="212" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H212" t="s">
         <v>882</v>
       </c>
@@ -13469,7 +13478,7 @@
       <c r="BF212"/>
       <c r="BG212"/>
     </row>
-    <row r="213" spans="8:59">
+    <row r="213" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H213" t="s">
         <v>883</v>
       </c>
@@ -13481,7 +13490,7 @@
       <c r="BF213"/>
       <c r="BG213"/>
     </row>
-    <row r="214" spans="8:59">
+    <row r="214" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H214" t="s">
         <v>884</v>
       </c>
@@ -13493,7 +13502,7 @@
       <c r="BF214"/>
       <c r="BG214"/>
     </row>
-    <row r="215" spans="8:59">
+    <row r="215" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H215" t="s">
         <v>885</v>
       </c>
@@ -13505,7 +13514,7 @@
       <c r="BF215"/>
       <c r="BG215"/>
     </row>
-    <row r="216" spans="8:59">
+    <row r="216" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H216" t="s">
         <v>886</v>
       </c>
@@ -13517,7 +13526,7 @@
       <c r="BF216"/>
       <c r="BG216"/>
     </row>
-    <row r="217" spans="8:59">
+    <row r="217" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H217" t="s">
         <v>880</v>
       </c>
@@ -13529,7 +13538,7 @@
       <c r="BF217"/>
       <c r="BG217"/>
     </row>
-    <row r="218" spans="8:59">
+    <row r="218" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H218" t="s">
         <v>887</v>
       </c>
@@ -13541,7 +13550,7 @@
       <c r="BF218"/>
       <c r="BG218"/>
     </row>
-    <row r="219" spans="8:59">
+    <row r="219" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H219" t="s">
         <v>888</v>
       </c>
@@ -13553,7 +13562,7 @@
       <c r="BF219"/>
       <c r="BG219"/>
     </row>
-    <row r="220" spans="8:59">
+    <row r="220" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H220" t="s">
         <v>889</v>
       </c>
@@ -13565,7 +13574,7 @@
       <c r="BF220"/>
       <c r="BG220"/>
     </row>
-    <row r="221" spans="8:59">
+    <row r="221" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H221" t="s">
         <v>890</v>
       </c>
@@ -13577,7 +13586,7 @@
       <c r="BF221"/>
       <c r="BG221"/>
     </row>
-    <row r="222" spans="8:59">
+    <row r="222" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H222" t="s">
         <v>891</v>
       </c>
@@ -13589,7 +13598,7 @@
       <c r="BF222"/>
       <c r="BG222"/>
     </row>
-    <row r="223" spans="8:59">
+    <row r="223" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H223" t="s">
         <v>892</v>
       </c>
@@ -13601,7 +13610,7 @@
       <c r="BF223"/>
       <c r="BG223"/>
     </row>
-    <row r="224" spans="8:59">
+    <row r="224" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H224" t="s">
         <v>893</v>
       </c>
@@ -13613,7 +13622,7 @@
       <c r="BF224"/>
       <c r="BG224"/>
     </row>
-    <row r="225" spans="8:59">
+    <row r="225" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H225" t="s">
         <v>894</v>
       </c>
@@ -13625,7 +13634,7 @@
       <c r="BF225"/>
       <c r="BG225"/>
     </row>
-    <row r="226" spans="8:59">
+    <row r="226" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H226" t="s">
         <v>895</v>
       </c>
@@ -13637,7 +13646,7 @@
       <c r="BF226"/>
       <c r="BG226"/>
     </row>
-    <row r="227" spans="8:59">
+    <row r="227" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H227" t="s">
         <v>896</v>
       </c>
@@ -13649,7 +13658,7 @@
       <c r="BF227"/>
       <c r="BG227"/>
     </row>
-    <row r="228" spans="8:59">
+    <row r="228" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H228" t="s">
         <v>897</v>
       </c>
@@ -13661,7 +13670,7 @@
       <c r="BF228"/>
       <c r="BG228"/>
     </row>
-    <row r="229" spans="8:59">
+    <row r="229" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H229" t="s">
         <v>898</v>
       </c>
@@ -13673,7 +13682,7 @@
       <c r="BF229"/>
       <c r="BG229"/>
     </row>
-    <row r="230" spans="8:59">
+    <row r="230" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H230" t="s">
         <v>899</v>
       </c>
@@ -13685,7 +13694,7 @@
       <c r="BF230"/>
       <c r="BG230"/>
     </row>
-    <row r="231" spans="8:59">
+    <row r="231" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H231" t="s">
         <v>900</v>
       </c>
@@ -13697,7 +13706,7 @@
       <c r="BF231"/>
       <c r="BG231"/>
     </row>
-    <row r="232" spans="8:59">
+    <row r="232" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H232" t="s">
         <v>901</v>
       </c>
@@ -13709,7 +13718,7 @@
       <c r="BF232"/>
       <c r="BG232"/>
     </row>
-    <row r="233" spans="8:59">
+    <row r="233" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H233" t="s">
         <v>902</v>
       </c>
@@ -13721,7 +13730,7 @@
       <c r="BF233"/>
       <c r="BG233"/>
     </row>
-    <row r="234" spans="8:59">
+    <row r="234" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H234" t="s">
         <v>903</v>
       </c>
@@ -13733,7 +13742,7 @@
       <c r="BF234"/>
       <c r="BG234"/>
     </row>
-    <row r="235" spans="8:59">
+    <row r="235" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H235" t="s">
         <v>904</v>
       </c>
@@ -13745,7 +13754,7 @@
       <c r="BF235"/>
       <c r="BG235"/>
     </row>
-    <row r="236" spans="8:59">
+    <row r="236" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H236" t="s">
         <v>905</v>
       </c>
@@ -13757,7 +13766,7 @@
       <c r="BF236"/>
       <c r="BG236"/>
     </row>
-    <row r="237" spans="8:59">
+    <row r="237" spans="8:59" x14ac:dyDescent="0.2">
       <c r="H237" t="s">
         <v>906</v>
       </c>
